--- a/Data/green_cover_borough_summary_0.05.xlsx
+++ b/Data/green_cover_borough_summary_0.05.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\K\Projects\Development\Environment\Biodiversity\GreenessIndex2017\outputs\analysis\lb_stats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/147974f7020f5ded/Desktop/UCL Materials/CASA0007 - Quantitative Methods/Assignment/Assignment 3/CASA0007-CW3/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB03A7F7-BDFB-44A9-9E93-2A1635C5A65B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB03A7F7-BDFB-44A9-9E93-2A1635C5A65B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{37F9E952-8E57-4185-86B0-B4707A1D0302}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{37F9E952-8E57-4185-86B0-B4707A1D0302}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="3" r:id="rId1"/>
@@ -789,14 +789,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13992F7F-D0A4-4D97-AE65-6799E1D60B77}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>75</v>
       </c>
@@ -804,11 +806,11 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>76</v>
       </c>
@@ -816,23 +818,23 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>79</v>
       </c>
@@ -840,7 +842,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>81</v>
       </c>
@@ -848,7 +850,7 @@
         <v>43466</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>82</v>
       </c>
@@ -856,7 +858,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>83</v>
       </c>
@@ -864,7 +866,7 @@
         <v>43466</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>84</v>
       </c>
@@ -872,7 +874,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>86</v>
       </c>
@@ -880,7 +882,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>88</v>
       </c>
@@ -888,7 +890,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>90</v>
       </c>
@@ -896,11 +898,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>92</v>
       </c>
@@ -908,10 +910,10 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>94</v>
       </c>
@@ -919,52 +921,52 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B19" s="8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
       <c r="B20" s="8" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
       <c r="B21" s="8" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
       <c r="B22" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
       <c r="B23" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
       <c r="B24" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
       <c r="B25" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
         <v>98</v>
       </c>
@@ -972,7 +974,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
         <v>0</v>
       </c>
@@ -980,7 +982,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
         <v>1</v>
       </c>
@@ -988,7 +990,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
         <v>111</v>
       </c>
@@ -996,7 +998,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
         <v>2</v>
       </c>
@@ -1004,7 +1006,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
         <v>3</v>
       </c>
@@ -1012,7 +1014,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="13" t="s">
         <v>4</v>
       </c>
@@ -1020,7 +1022,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
         <v>5</v>
       </c>
@@ -1028,7 +1030,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="14" t="s">
         <v>6</v>
       </c>
@@ -1036,7 +1038,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="14" t="s">
         <v>7</v>
       </c>
@@ -1056,21 +1058,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC97DB7-C605-4EE1-9110-990F107B7E3D}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" customWidth="1"/>
+    <col min="8" max="8" width="14.81640625" customWidth="1"/>
+    <col min="9" max="9" width="19.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1099,7 +1103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -1128,7 +1132,7 @@
         <v>13.311089059337997</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1157,7 +1161,7 @@
         <v>45.29927062818809</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1186,7 +1190,7 @@
         <v>58.686071418455136</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -1215,7 +1219,7 @@
         <v>49.724120250548374</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1244,7 +1248,7 @@
         <v>40.967720365675028</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1273,7 +1277,7 @@
         <v>68.735537164843848</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1302,7 +1306,7 @@
         <v>44.18826200917205</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>72</v>
       </c>
@@ -1331,7 +1335,7 @@
         <v>55.661463358010735</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1360,7 +1364,7 @@
         <v>44.898701894383755</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1389,7 +1393,7 @@
         <v>58.11105394249396</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1418,7 +1422,7 @@
         <v>49.998691991206655</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>62</v>
       </c>
@@ -1447,7 +1451,7 @@
         <v>41.027303183589098</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1476,7 +1480,7 @@
         <v>32.22362342774619</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1505,7 +1509,7 @@
         <v>44.336678946890238</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1534,7 +1538,7 @@
         <v>55.891998704758649</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1563,7 +1567,7 @@
         <v>69.491218246547518</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -1592,7 +1596,7 @@
         <v>57.855991941160291</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1621,7 +1625,7 @@
         <v>50.46249136814339</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -1650,7 +1654,7 @@
         <v>35.141760208378464</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>64</v>
       </c>
@@ -1679,7 +1683,7 @@
         <v>32.674778687336023</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -1708,7 +1712,7 @@
         <v>53.479121928236687</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -1737,7 +1741,7 @@
         <v>34.536085964435429</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -1766,7 +1770,7 @@
         <v>41.05373746184992</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -1795,7 +1799,7 @@
         <v>49.629376495768419</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -1824,7 +1828,7 @@
         <v>40.103897972790818</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -1853,7 +1857,7 @@
         <v>54.976660054599535</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -1882,7 +1886,7 @@
         <v>67.231818796471615</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -1911,7 +1915,7 @@
         <v>41.893961200303259</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -1940,7 +1944,7 @@
         <v>50.941070754341652</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -1969,7 +1973,7 @@
         <v>37.133816441126719</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -1998,7 +2002,7 @@
         <v>50.59386321103144</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -2027,7 +2031,7 @@
         <v>42.205532976320001</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>57</v>
       </c>
@@ -2057,7 +2061,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:I34">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I34">
     <sortCondition ref="B2:B34"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/green_cover_borough_summary_0.05.xlsx
+++ b/Data/green_cover_borough_summary_0.05.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/147974f7020f5ded/Desktop/UCL Materials/CASA0007 - Quantitative Methods/Assignment/Assignment 3/CASA0007-CW3/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\K\Projects\Development\Environment\Biodiversity\GreenessIndex2017\outputs\analysis\lb_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB03A7F7-BDFB-44A9-9E93-2A1635C5A65B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB03A7F7-BDFB-44A9-9E93-2A1635C5A65B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{37F9E952-8E57-4185-86B0-B4707A1D0302}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{37F9E952-8E57-4185-86B0-B4707A1D0302}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="3" r:id="rId1"/>
@@ -789,16 +789,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13992F7F-D0A4-4D97-AE65-6799E1D60B77}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.7265625" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>75</v>
       </c>
@@ -806,11 +804,11 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>76</v>
       </c>
@@ -818,23 +816,23 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>79</v>
       </c>
@@ -842,7 +840,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>81</v>
       </c>
@@ -850,7 +848,7 @@
         <v>43466</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>82</v>
       </c>
@@ -858,7 +856,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>83</v>
       </c>
@@ -866,7 +864,7 @@
         <v>43466</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>84</v>
       </c>
@@ -874,7 +872,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>86</v>
       </c>
@@ -882,7 +880,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>88</v>
       </c>
@@ -890,7 +888,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>90</v>
       </c>
@@ -898,11 +896,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>92</v>
       </c>
@@ -910,10 +908,10 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>94</v>
       </c>
@@ -921,52 +919,52 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="8" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>98</v>
       </c>
@@ -974,7 +972,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>0</v>
       </c>
@@ -982,7 +980,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>1</v>
       </c>
@@ -990,7 +988,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>111</v>
       </c>
@@ -998,7 +996,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>2</v>
       </c>
@@ -1006,7 +1004,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>3</v>
       </c>
@@ -1014,7 +1012,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>4</v>
       </c>
@@ -1022,7 +1020,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>5</v>
       </c>
@@ -1030,7 +1028,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>6</v>
       </c>
@@ -1038,7 +1036,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>7</v>
       </c>
@@ -1058,23 +1056,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC97DB7-C605-4EE1-9110-990F107B7E3D}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" customWidth="1"/>
-    <col min="8" max="8" width="14.81640625" customWidth="1"/>
-    <col min="9" max="9" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1103,7 +1099,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -1132,7 +1128,7 @@
         <v>13.311089059337997</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1161,7 +1157,7 @@
         <v>45.29927062818809</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1190,7 +1186,7 @@
         <v>58.686071418455136</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -1219,7 +1215,7 @@
         <v>49.724120250548374</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1248,7 +1244,7 @@
         <v>40.967720365675028</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1277,7 +1273,7 @@
         <v>68.735537164843848</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1306,7 +1302,7 @@
         <v>44.18826200917205</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>72</v>
       </c>
@@ -1335,7 +1331,7 @@
         <v>55.661463358010735</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1364,7 +1360,7 @@
         <v>44.898701894383755</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1393,7 +1389,7 @@
         <v>58.11105394249396</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1422,7 +1418,7 @@
         <v>49.998691991206655</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>62</v>
       </c>
@@ -1451,7 +1447,7 @@
         <v>41.027303183589098</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1480,7 +1476,7 @@
         <v>32.22362342774619</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1509,7 +1505,7 @@
         <v>44.336678946890238</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1538,7 +1534,7 @@
         <v>55.891998704758649</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1567,7 +1563,7 @@
         <v>69.491218246547518</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -1596,7 +1592,7 @@
         <v>57.855991941160291</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1625,7 +1621,7 @@
         <v>50.46249136814339</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -1654,7 +1650,7 @@
         <v>35.141760208378464</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>64</v>
       </c>
@@ -1683,7 +1679,7 @@
         <v>32.674778687336023</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -1712,7 +1708,7 @@
         <v>53.479121928236687</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -1741,7 +1737,7 @@
         <v>34.536085964435429</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -1770,7 +1766,7 @@
         <v>41.05373746184992</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -1799,7 +1795,7 @@
         <v>49.629376495768419</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -1828,7 +1824,7 @@
         <v>40.103897972790818</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -1857,7 +1853,7 @@
         <v>54.976660054599535</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -1886,7 +1882,7 @@
         <v>67.231818796471615</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -1915,7 +1911,7 @@
         <v>41.893961200303259</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -1944,7 +1940,7 @@
         <v>50.941070754341652</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -1973,7 +1969,7 @@
         <v>37.133816441126719</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -2002,7 +1998,7 @@
         <v>50.59386321103144</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -2031,7 +2027,7 @@
         <v>42.205532976320001</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>57</v>
       </c>
@@ -2061,7 +2057,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I34">
+  <sortState ref="A2:I34">
     <sortCondition ref="B2:B34"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
